--- a/cipher_ranks.xlsx
+++ b/cipher_ranks.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\gitr\research\buselfs-experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF3A540-620D-450D-B2FA-D70ABB2E3FC1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0CC43B-1BA0-4593-8F20-E56244E141BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{16706E02-1EE9-43C3-8BFF-52ABAF764CC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{16706E02-1EE9-43C3-8BFF-52ABAF764CC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>CN8</t>
   </si>
@@ -48,12 +54,6 @@
     <t>S20</t>
   </si>
   <si>
-    <t>A128</t>
-  </si>
-  <si>
-    <t>A256</t>
-  </si>
-  <si>
     <t>HC128</t>
   </si>
   <si>
@@ -69,18 +69,12 @@
     <t>FS</t>
   </si>
   <si>
-    <t>XTS</t>
-  </si>
-  <si>
     <t>FB</t>
   </si>
   <si>
     <t>OR</t>
   </si>
   <si>
-    <t>SAR</t>
-  </si>
-  <si>
     <t>RR/RK</t>
   </si>
   <si>
@@ -90,16 +84,43 @@
     <t>REASONING</t>
   </si>
   <si>
-    <t>rr=0 b/c HC-256</t>
-  </si>
-  <si>
     <t>better OR b/c (k, p, nonce) =&gt; rand</t>
   </si>
   <si>
-    <t>better SAR b/c var rounds = harder bruteforce</t>
-  </si>
-  <si>
     <t>ok OR b/c builtin integrity failover</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>better CR b/c var rounds = harder bruteforce</t>
+  </si>
+  <si>
+    <t>OR = output randomization</t>
+  </si>
+  <si>
+    <t>RR/RK = relative round/relative keylength measure</t>
+  </si>
+  <si>
+    <t>CR = cryptanalysis resistance (see freestyle)</t>
+  </si>
+  <si>
+    <t>HC256</t>
+  </si>
+  <si>
+    <t>A256CTR</t>
+  </si>
+  <si>
+    <t>A128CTR</t>
+  </si>
+  <si>
+    <t>A128XTS</t>
   </si>
 </sst>
 </file>
@@ -174,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -495,34 +516,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B0C56C-2BCE-458E-80E0-C0DADFEE6FAF}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -539,13 +560,16 @@
         <f>SUM(B2,C2,D2)</f>
         <v>0.5</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -562,13 +586,16 @@
         <f>SUM(B3,C3,D3)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -582,18 +609,21 @@
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E17" si="0">SUM(B4,C4,D4)</f>
+        <f t="shared" ref="E4:E19" si="0">SUM(B4,C4,D4)</f>
         <v>1.5</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -602,11 +632,11 @@
         <v>0.5</v>
       </c>
       <c r="D5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f t="shared" ref="E5:E6" si="1">SUM(B5,C5,D5)</f>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -614,22 +644,22 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -637,32 +667,32 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -671,252 +701,320 @@
         <v>0.4</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" ref="E13" si="2">SUM(B13,C13,D13)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="B16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="5">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5">
         <v>0.2</v>
       </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
-        <f>SUM(B17,C17,D17)</f>
-        <v>1.2</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="C20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <f>SUM(B20,C20,D20)</f>
+        <v>1.7</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
+  <mergeCells count="18">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="F8:J8"/>
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="F10:J10"/>
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
     <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
